--- a/data/income_statement/2digits/size/11_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/11_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>11-Manufacture of beverages</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>11-Manufacture of beverages</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>191394.14689</v>
+        <v>241929.04683</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>191667.69349</v>
+        <v>250978.21397</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>173495.70186</v>
+        <v>241389.65459</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>189879.92937</v>
+        <v>269971.948</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>336739.21341</v>
+        <v>430399.51695</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>384050.26395</v>
+        <v>475242.67637</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>385008.68707</v>
+        <v>571638.29339</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>351891.98014</v>
+        <v>501302.46724</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>308347.40866</v>
+        <v>484379.96816</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>902989.21428</v>
+        <v>1242654.30674</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1029214.73453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1195429.4522</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1258010.608</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>176314.20825</v>
+        <v>225405.09734</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>176759.76964</v>
+        <v>234402.85291</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>165945.15754</v>
+        <v>228296.56687</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>180324.56513</v>
+        <v>257931.75229</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>326400.92733</v>
+        <v>417294.6776</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>367496.29089</v>
+        <v>451733.90065</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>363983.5436</v>
+        <v>541827.18704</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>335880.61049</v>
+        <v>477382.33833</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>285408.54222</v>
+        <v>455670.17591</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>857686.1842100001</v>
+        <v>1150887.4384</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>950204.2932899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1095953.23178</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1128603.594</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13003.36839</v>
+        <v>13112.85886</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11827.82048</v>
+        <v>12942.94229</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3779.74325</v>
+        <v>8568.875189999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2492.61411</v>
+        <v>4264.89486</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3829.65009</v>
+        <v>5791.378809999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7262.92287</v>
+        <v>11674.19744</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>12810.98316</v>
+        <v>17028.55784</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7986.412780000001</v>
+        <v>12431.24951</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>16722.73874</v>
+        <v>20459.33297</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>25645.42559</v>
+        <v>43246.90818999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>58235.97204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>72704.7822</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>96797.09</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2076.57025</v>
+        <v>3411.09063</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3080.10337</v>
+        <v>3632.41877</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3770.80107</v>
+        <v>4524.212530000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7062.750129999999</v>
+        <v>7775.30085</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6508.635990000001</v>
+        <v>7313.46054</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9291.05019</v>
+        <v>11834.57828</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8214.160309999999</v>
+        <v>12782.54851</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>8024.95687</v>
+        <v>11488.8794</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6216.1277</v>
+        <v>8250.459280000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>19657.60448</v>
+        <v>48519.96015</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>20774.4692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>26771.43822</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>32609.924</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5254.55298</v>
+        <v>7377.93991</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5138.063599999999</v>
+        <v>8300.51894</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6895.86583</v>
+        <v>12585.22547</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4622.49858</v>
+        <v>8673.989599999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11666.79389</v>
+        <v>18015.96081</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12913.35072</v>
+        <v>18488.87394</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12167.68981</v>
+        <v>73801.73967</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10220.45795</v>
+        <v>54664.59777</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>8224.36845</v>
+        <v>65913.56842</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>55839.20886</v>
+        <v>180147.55803</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>60799.04955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>112216.93348</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>58441.952</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3179.93701</v>
+        <v>4511.99143</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2126.55446</v>
+        <v>2987.46636</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3384.14844</v>
+        <v>7138.45595</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2461.64828</v>
+        <v>5146.98803</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6916.07079</v>
+        <v>10788.05447</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8902.422640000001</v>
+        <v>10949.04802</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7514.04588</v>
+        <v>14125.6832</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3911.07234</v>
+        <v>10669.94756</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5649.93834</v>
+        <v>9046.45537</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>29197.3132</v>
+        <v>49927.02641</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>25642.38257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28867.45068</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>39103.007</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1583.7286</v>
+        <v>2513.19522</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1197.7831</v>
+        <v>3623.01811</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1329.50993</v>
+        <v>3835.22149</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1692.98771</v>
+        <v>3136.70817</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3394.10158</v>
+        <v>5843.88414</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3218.27652</v>
+        <v>6997.46076</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3399.37394</v>
+        <v>10587.23766</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4173.05687</v>
+        <v>6429.26105</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1458.39448</v>
+        <v>4479.49479</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>17130.78573</v>
+        <v>17427.68404</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>15055.26918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23158.85842</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5638.147</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>490.88737</v>
+        <v>352.75326</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1813.72604</v>
+        <v>1690.03447</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2182.20746</v>
+        <v>1611.54803</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>467.86259</v>
+        <v>390.2934</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1356.62152</v>
+        <v>1384.0222</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>792.65156</v>
+        <v>542.3651600000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1254.26999</v>
+        <v>49088.81881</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2136.32874</v>
+        <v>37565.38916</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1116.03563</v>
+        <v>52387.61826</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9511.109930000001</v>
+        <v>112792.84758</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20101.3978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>60190.62438</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13700.798</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>186139.59391</v>
+        <v>234551.10692</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>186529.62989</v>
+        <v>242677.69503</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>166599.83603</v>
+        <v>228804.42912</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>185257.43079</v>
+        <v>261297.9584</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>325072.41952</v>
+        <v>412383.55614</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>371136.91323</v>
+        <v>456753.80243</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>372840.99726</v>
+        <v>497836.55372</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>341671.52219</v>
+        <v>446637.86947</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>300123.04021</v>
+        <v>418466.39974</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>847150.0054199999</v>
+        <v>1062506.74871</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>968415.68498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1083212.51872</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1199568.656</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>136953.55547</v>
+        <v>177234.95586</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>138710.40458</v>
+        <v>183300.21324</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>121965.62869</v>
+        <v>169674.125</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>135238.66696</v>
+        <v>196270.61757</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>257019.23273</v>
+        <v>338502.81232</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>291884.85961</v>
+        <v>361779.46531</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>294791.31243</v>
+        <v>392676.53742</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>263999.46171</v>
+        <v>345671.96524</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>227940.562</v>
+        <v>322539.23014</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>666213.47557</v>
+        <v>823566.89433</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>755814.9909099999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>852621.29784</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>946598.302</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>94755.72070000001</v>
+        <v>126789.89499</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>90271.30147000001</v>
+        <v>131706.79365</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>96037.92379</v>
+        <v>135775.21739</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>100388.2371</v>
+        <v>153197.21416</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>209271.35501</v>
+        <v>286480.24494</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>243979.0387</v>
+        <v>309051.47157</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>240717.39135</v>
+        <v>332713.36527</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>204006.18658</v>
+        <v>279040.07873</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>161834.46017</v>
+        <v>245177.58414</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>515404.07202</v>
+        <v>663276.36356</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>549139.36621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>645400.42885</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>778862.7709999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>36035.90652</v>
+        <v>42767.0592</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>33869.98979</v>
+        <v>38365.53081</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>17089.97122</v>
+        <v>26262.31703</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>24300.90247</v>
+        <v>33371.72516</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>35935.47061</v>
+        <v>39948.96004</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>35660.02481</v>
+        <v>37582.45222</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>37027.60987</v>
+        <v>42476.53107</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>39832.31963000001</v>
+        <v>47537.6735</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>47172.7256</v>
+        <v>56013.08422</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>117421.03837</v>
+        <v>117933.47029</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>157112.06263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>154451.73236</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>116158.888</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5741.991150000001</v>
+        <v>7383.0892</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14010.94657</v>
+        <v>12567.91796</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8337.433070000001</v>
+        <v>7103.15885</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>10021.37837</v>
+        <v>9185.85528</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9185.12176</v>
+        <v>8901.42837</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11736.49135</v>
+        <v>11581.5295</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>14490.23544</v>
+        <v>14952.25614</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>17213.36973</v>
+        <v>16125.55881</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>16690.0588</v>
+        <v>18883.72551</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>31696.29996</v>
+        <v>38205.84535</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>44954.2396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>45864.36875</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>44349.107</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>419.9371</v>
+        <v>294.91247</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>558.16675</v>
+        <v>659.97082</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>500.30061</v>
+        <v>533.43173</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>528.1490200000001</v>
+        <v>515.8229699999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2627.28535</v>
+        <v>3172.17897</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>509.30475</v>
+        <v>3564.01202</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2556.07577</v>
+        <v>2534.38494</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2947.58577</v>
+        <v>2968.6542</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2243.31743</v>
+        <v>2464.83627</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1692.06522</v>
+        <v>4151.21513</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4609.32247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6904.76788</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7227.536</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>49186.03844</v>
+        <v>57316.15106</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>47819.22531</v>
+        <v>59377.48179</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>44634.20734</v>
+        <v>59130.30412</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>50018.76383</v>
+        <v>65027.34083</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>68053.18679000001</v>
+        <v>73880.74381999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>79252.05362000001</v>
+        <v>94974.33712000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>78049.68483</v>
+        <v>105160.0163</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>77672.06048</v>
+        <v>100965.90423</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>72182.47820999999</v>
+        <v>95927.16959999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>180936.52985</v>
+        <v>238939.85438</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>212600.69407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>230591.22088</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>252970.354</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>38159.85193</v>
+        <v>52884.71879</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>42165.392</v>
+        <v>52541.02374</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>43205.62352</v>
+        <v>57600.58147</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>46399.86472</v>
+        <v>65654.7191</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>71208.19865999999</v>
+        <v>89741.59640000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>70737.71098</v>
+        <v>86655.08438</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>75365.37367</v>
+        <v>96876.29527</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>69566.59356000001</v>
+        <v>87481.63119</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>58927.28651</v>
+        <v>79385.41428</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>127647.60163</v>
+        <v>154866.17822</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>140323.88724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>167657.58317</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>185459.058</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>354.11603</v>
@@ -1580,7 +1566,7 @@
         <v>178.48109</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>115.74161</v>
+        <v>116.15861</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>26.83728</v>
@@ -1595,178 +1581,203 @@
         <v>31.31364</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>47.54913</v>
+        <v>37.945</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>251.96408</v>
+        <v>0</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>16.14913</v>
+        <v>147.76767</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>16.80368</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>215.069</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>13512.39056</v>
+        <v>17546.05871</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>12969.35277</v>
+        <v>18536.81704</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12214.1892</v>
+        <v>20406.8705</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>12939.41165</v>
+        <v>19913.992</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>22279.32367</v>
+        <v>35114.46095</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>28076.02049</v>
+        <v>37242.53209</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>28425.88719</v>
+        <v>39632.49106</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>27870.04356</v>
+        <v>39008.20728</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19262.68289</v>
+        <v>32705.69609</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>49170.88755</v>
+        <v>61505.15114</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>53290.52698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>61806.71475</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>57265.234</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>24293.34534</v>
+        <v>34984.54405</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>29017.55814</v>
+        <v>33825.72561</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>30875.69271</v>
+        <v>37077.55236</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>33433.61579</v>
+        <v>45713.88982</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>48910.27034</v>
+        <v>54608.5308</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>42613.67512</v>
+        <v>49364.53692</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46908.17284000001</v>
+        <v>57212.49057</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>41649.00087</v>
+        <v>48435.47891</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>39412.63954</v>
+        <v>46679.71819</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>78460.56495</v>
+        <v>93213.25941</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>87016.55658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>105834.06474</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>127978.755</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>11026.18651</v>
+        <v>4431.432269999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5653.83331</v>
+        <v>6836.45805</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1428.58382</v>
+        <v>1529.72265</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3618.89911</v>
+        <v>-627.37827</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3155.01187</v>
+        <v>-15860.85258</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8514.342640000001</v>
+        <v>8319.25274</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2684.31116</v>
+        <v>8283.721030000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8105.46692</v>
+        <v>13484.27304</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13255.1917</v>
+        <v>16541.75532</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>53288.92822</v>
+        <v>84073.67616</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>72276.80683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>62933.63771</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>67511.296</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3512.67661</v>
+        <v>5502.53158</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4145.7015</v>
+        <v>5342.51194</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3159.31106</v>
+        <v>4981.31268</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1816.05414</v>
+        <v>8176.755700000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3994.98087</v>
+        <v>10048.44335</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2858.18313</v>
+        <v>7393.683889999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5126.906730000001</v>
+        <v>6649.02904</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4463.75424</v>
+        <v>5022.974480000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3799.86297</v>
+        <v>9258.771550000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11726.272</v>
+        <v>45480.78979</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8884.162990000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>28137.99243</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>28687.12</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1778,10 +1789,10 @@
         <v>1e-05</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>5.502350000000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3.96052</v>
+        <v>7.97094</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>3.68421</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1143.63147</v>
+        <v>506.85728</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1293.84527</v>
+        <v>1416.53062</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1239.3074</v>
+        <v>1733.08617</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>591.78765</v>
+        <v>2789.77939</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>901.2120200000001</v>
+        <v>3348.00243</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1130.1405</v>
+        <v>4466.0267</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1053.25951</v>
+        <v>814.03508</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1438.65434</v>
+        <v>678.1048900000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1044.81461</v>
+        <v>866.34399</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2735.12823</v>
+        <v>8691.061970000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3211.36877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>12360.79599</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12143.934</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1895,88 +1921,98 @@
         <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0</v>
+        <v>11.60191</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>125.27771</v>
+        <v>14.07792</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>43.00667</v>
+        <v>47.58507</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>31.00503</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>61.80773000000001</v>
+        <v>75.57235</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>258.73481</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>18.53326</v>
+        <v>18.78749</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>168.20109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>387.85277</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>76.83799999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>64.69604</v>
+        <v>64.89126999999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>71.57380000000001</v>
+        <v>73.97429</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6.73096</v>
+        <v>18.02705</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>65.87672999999999</v>
+        <v>85.88477</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>221.74807</v>
+        <v>253.00547</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>27.23619</v>
+        <v>32.15142</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>283.76342</v>
+        <v>310.00742</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>40.84975</v>
+        <v>67.09375</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>7.0023</v>
+        <v>31.51662</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1.458</v>
+        <v>103.458</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>18.26908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>32.44716</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>121.025</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>19.15273</v>
+        <v>55.23795</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5.21059</v>
+        <v>2.47979</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>38.0608</v>
+        <v>52.87825</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0.69952</v>
+        <v>1.36622</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>217.52137</v>
+        <v>217.49682</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>3.54721</v>
@@ -1985,61 +2021,71 @@
         <v>43.60662</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5.33616</v>
+        <v>14.42328</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>42.58471</v>
+        <v>50.11958</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>90.24047</v>
+        <v>160.8781</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>145.46122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>127.28513</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>106.533</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1382.28604</v>
+        <v>3710.16262</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1688.89055</v>
+        <v>2607.1031</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1519.21993</v>
+        <v>3008.64083</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>914.35531</v>
+        <v>4444.22045</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>887.91401</v>
+        <v>3766.67128</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>640.73643</v>
+        <v>1679.38765</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1148.78036</v>
+        <v>2145.8048</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>860.92575</v>
+        <v>568.4216</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>833.5995</v>
+        <v>5380.03978</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7015.67864</v>
+        <v>33286.1615</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2309.41153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11091.18771</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>14704.245</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2072,13 +2118,18 @@
         <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>30.0038</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>15.982</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>2.95918</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>886.92833</v>
+        <v>1149.40046</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1086.18129</v>
+        <v>1242.42414</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>355.99196</v>
+        <v>168.68037</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>243.33493</v>
+        <v>838.40061</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1637.34717</v>
+        <v>2438.25931</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1009.83192</v>
+        <v>1161.30163</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2563.26811</v>
+        <v>3301.34641</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2056.18051</v>
+        <v>3619.35861</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1613.12704</v>
+        <v>2672.01677</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1865.2334</v>
+        <v>3220.44273</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3031.4513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4108.41987</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1534.545</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2633.50263</v>
+        <v>5296.84791</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2839.8214</v>
+        <v>4414.81833</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2628.15628</v>
+        <v>8486.67866</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2022.27639</v>
+        <v>3382.62864</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3371.67296</v>
+        <v>14728.25643</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2413.47551</v>
+        <v>3971.47013</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4452.11117</v>
+        <v>18189.34204</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2369.12748</v>
+        <v>7809.01482</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1296.97161</v>
+        <v>8304.97711</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>22279.75462</v>
+        <v>39134.97568</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6501.87287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15036.14603</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13429.104</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>24.71717</v>
+        <v>28.87593</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>553.2462800000001</v>
+        <v>3.53989</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>14.79619</v>
+        <v>12.37741</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>169.93646</v>
+        <v>258.47426</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>43.10801</v>
+        <v>160.49923</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>62.14767</v>
+        <v>87.42759</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>47.00586</v>
+        <v>50.11476</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>55.87958999999999</v>
+        <v>46.82617</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>31.59175</v>
+        <v>49.84061</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>119.861</v>
+        <v>104.77108</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>234.26183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>190.0662</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>128.269</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1077.41156</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>123.78334</v>
+        <v>975.10217</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1018.25506</v>
+        <v>1094.94903</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>551.7176899999999</v>
+        <v>543.11378</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>790.12879</v>
+        <v>1972.63641</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>802.4809</v>
+        <v>770.43966</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1838.01138</v>
+        <v>2275.68727</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1494.04647</v>
+        <v>1298.37347</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>60.77496</v>
+        <v>74.22374000000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>752.85173</v>
+        <v>851.85173</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1609.23369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1869.74859</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1048.682</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.00087</v>
@@ -2294,70 +2370,80 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>19.37022</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>5.51117</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.09931</v>
+        <v>289.1938</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>34.97764</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>204.55997</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1368.14922</v>
+        <v>3784.89472</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1684.36457</v>
+        <v>2966.43039</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1368.31052</v>
+        <v>7210.44195</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1067.42243</v>
+        <v>1765.72658</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1985.38032</v>
+        <v>11378.68033</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1054.48836</v>
+        <v>1999.80277</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>852.10073</v>
+        <v>13753.88658</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>745.03896</v>
+        <v>5375.34552</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>556.9472500000001</v>
+        <v>7564.125440000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>20139.5701</v>
+        <v>35781.16969</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3185.00291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11073.72354</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11043.291</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.02367</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>78.18106</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1.28619</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0</v>
+        <v>0.02052</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>163.20014</v>
+        <v>405.64116</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>214.24621</v>
+        <v>283.74594</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>226.79451</v>
+        <v>168.91027</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>233.18993</v>
+        <v>815.30414</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>551.4322199999999</v>
+        <v>1214.81684</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>494.35858</v>
+        <v>1113.80011</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1714.989</v>
+        <v>2090.27901</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>74.16246000000001</v>
+        <v>1082.95849</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>647.65765</v>
+        <v>616.7873199999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1267.37248</v>
+        <v>2107.96886</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1437.11061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1696.76154</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1208.862</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4751.28468</v>
+        <v>9772.20508</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4777.0275</v>
+        <v>8637.18527</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5756.485570000001</v>
+        <v>12016.70778</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7444.922259999999</v>
+        <v>12834.85952</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9707.73129</v>
+        <v>17357.80331</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>14278.71728</v>
+        <v>20368.65468</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10672.02775</v>
+        <v>19793.62748</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9610.173839999999</v>
+        <v>14694.5368</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7164.25407</v>
+        <v>13076.50679</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>30914.47769</v>
+        <v>39252.56151</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32699.69201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>41794.65471</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>32049.011</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4600.61123</v>
+        <v>9603.395349999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4507.2026</v>
+        <v>8501.085070000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5351.80689</v>
+        <v>11781.77002</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6885.79132</v>
+        <v>12313.32174</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9136.082560000001</v>
+        <v>16600.11276</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>13249.3371</v>
+        <v>19372.27812</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9790.842630000001</v>
+        <v>18428.91862</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9174.4684</v>
+        <v>13847.11776</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7105.1152</v>
+        <v>12868.86258</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30602.66317</v>
+        <v>36769.7863</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30269.09663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>36632.5655</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>30642.058</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>150.67345</v>
+        <v>168.80973</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>269.8249</v>
+        <v>136.1002</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>404.67868</v>
+        <v>234.93776</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>559.1309399999999</v>
+        <v>521.53778</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>571.64873</v>
+        <v>757.69055</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1029.38018</v>
+        <v>996.37656</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>881.18512</v>
+        <v>1364.70886</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>435.70544</v>
+        <v>847.41904</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>59.13887</v>
+        <v>207.64421</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>311.81452</v>
+        <v>2482.77521</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2430.59538</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5162.08921</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1406.953</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7154.075809999999</v>
+        <v>-5135.08914</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2182.68591</v>
+        <v>-873.03361</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-3796.74697</v>
+        <v>-13992.35111</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4032.2454</v>
+        <v>-8668.11073</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-12239.43525</v>
+        <v>-37898.46897</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-5319.66702</v>
+        <v>-8627.188179999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-7312.92103</v>
+        <v>-23050.21945</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>589.91984</v>
+        <v>-3996.3041</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>8593.82899</v>
+        <v>4419.04297</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>11820.96791</v>
+        <v>51166.92876</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>41959.40494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>34240.8294</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>50720.301</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1583.85742</v>
+        <v>2674.5158</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4428.42179</v>
+        <v>2045.7968</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3375.45962</v>
+        <v>21491.59162</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2658.29218</v>
+        <v>9445.50873</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3865.41422</v>
+        <v>4628.517620000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3750.31682</v>
+        <v>7645.613679999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4838.33785</v>
+        <v>14802.27661</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3953.01123</v>
+        <v>3085.86607</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3796.38176</v>
+        <v>3058.45072</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7138.88113</v>
+        <v>6942.60356</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9778.598239999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9579.81611</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>24381.236</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>29.07419</v>
+        <v>653.8434100000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>9.79092</v>
+        <v>230.49385</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2.72445</v>
+        <v>4.82834</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>296.32637</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>59.42469999999999</v>
+        <v>59.88604</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14.76522</v>
+        <v>401.21437</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1.0625</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>35.95492</v>
+        <v>16.52338</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0.18843</v>
+        <v>19.70083</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2.05752</v>
+        <v>228.99299</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20.16899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>335.35049</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1554.78323</v>
+        <v>2020.67239</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4418.63087</v>
+        <v>1815.30295</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3372.73517</v>
+        <v>21486.76328</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2361.96581</v>
+        <v>9149.182359999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3805.98952</v>
+        <v>4568.63158</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3735.5516</v>
+        <v>7244.39931</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4837.27535</v>
+        <v>14801.21411</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3917.05631</v>
+        <v>3069.34269</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3796.19333</v>
+        <v>3038.74989</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7136.82361</v>
+        <v>6713.610570000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9758.429249999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9244.465619999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>24381.088</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5397.02881</v>
+        <v>6306.67155</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3376.38917</v>
+        <v>2905.78235</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>16354.11325</v>
+        <v>19629.55089</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>14036.96063</v>
+        <v>18050.78941</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4465.44045</v>
+        <v>7880.97561</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9144.25245</v>
+        <v>15103.85347</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8285.5304</v>
+        <v>11628.11563</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8656.51023</v>
+        <v>9435.50504</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4912.05219</v>
+        <v>5564.85359</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>19649.27908</v>
+        <v>29791.40309</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>92237.62006999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>17686.76961</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>42212.024</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.51776</v>
+        <v>24.37889</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7.41455</v>
+        <v>125.56211</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>61.71448</v>
+        <v>510.80837</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>535.8102700000001</v>
+        <v>2366.5767</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>250.20903</v>
+        <v>101.04314</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>452.76773</v>
+        <v>155.52077</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>245.40968</v>
+        <v>629.5726</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>82.00743</v>
+        <v>60.63081</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>568.6956899999999</v>
+        <v>664.87519</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>417.48385</v>
+        <v>1313.3177</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>347.3626599999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3524.12108</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>830.687</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>497.90004</v>
+        <v>36.26449</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>441.52569</v>
+        <v>251.60996</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>33.58259</v>
+        <v>144.29937</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>21.42371</v>
+        <v>180.42337</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>131.79109</v>
+        <v>604.42598</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>79.751</v>
+        <v>91.31295</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>541.0903000000001</v>
+        <v>444.6394</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1099.05064</v>
+        <v>728.47899</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>272.86382</v>
+        <v>299.33343</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3962.70076</v>
+        <v>105.55972</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1019.75544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>452.44872</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>204.14</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4898.61101</v>
+        <v>6246.02817</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2927.44893</v>
+        <v>2528.61028</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>16258.81618</v>
+        <v>18974.44315</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13479.72665</v>
+        <v>15503.78934</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4083.44033</v>
+        <v>7175.506490000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8611.73372</v>
+        <v>14857.01975</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7499.03042</v>
+        <v>10553.90363</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7475.45216</v>
+        <v>8646.39524</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4070.49268</v>
+        <v>4600.644969999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>15269.09447</v>
+        <v>28372.52567</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>90870.50197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13710.19981</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>41177.197</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3340.90442</v>
+        <v>-8767.24489</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3234.71853</v>
+        <v>-1733.01916</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-16775.4006</v>
+        <v>-12130.31038</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-15410.91385</v>
+        <v>-17273.39141</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-12839.46148</v>
+        <v>-41150.92696</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-10713.60265</v>
+        <v>-16085.42797</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10760.11358</v>
+        <v>-19876.05847</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-4113.57916</v>
+        <v>-10345.94307</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>7478.15856</v>
+        <v>1912.6401</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-689.4300400000001</v>
+        <v>28318.12923</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-40499.61689</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>26133.8759</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>32889.513</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2518.19204</v>
+        <v>2488.05224</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2117.65106</v>
+        <v>2501.72237</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1552.08888</v>
+        <v>2126.04045</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1379.01915</v>
+        <v>2301.27328</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2382.07722</v>
+        <v>2606.49345</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2867.50654</v>
+        <v>3031.34667</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2475.67312</v>
+        <v>2750.6522</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2579.80136</v>
+        <v>2781.60584</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2268.58709</v>
+        <v>2540.28259</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8259.68497</v>
+        <v>10179.139</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11490.22874</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11547.29766</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13142.735</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>822.7123800000001</v>
+        <v>-11255.29713</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1117.06747</v>
+        <v>-4234.74153</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-18327.48948</v>
+        <v>-14256.35083</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-16789.933</v>
+        <v>-19574.66469</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-15221.5387</v>
+        <v>-43757.42041</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-13581.10919</v>
+        <v>-19116.77464</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-13235.7867</v>
+        <v>-22626.71067</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6693.38052</v>
+        <v>-13127.54891</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5209.57147</v>
+        <v>-627.64249</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8949.11501</v>
+        <v>18138.99023</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-51989.84563</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14586.57824</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19746.778</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>144</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>